--- a/results/fsm_0130_33_all_FSM_tr20.xlsx
+++ b/results/fsm_0130_33_all_FSM_tr20.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo_S\Desktop\logi2dial\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8EEF7-4BA1-451B-91CC-9FF07D712963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37985A2D-9384-EB45-BC8E-0B5CE6D726C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-4130" windowWidth="14620" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$512</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$512</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -6823,6 +6823,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6867,7 +6868,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7170,13 +7171,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B508" sqref="B508"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>46</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>53</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>64</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>92</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>98</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>122</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>128</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>146</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>160</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>170</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>175</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>185</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>191</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>197</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>203</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>209</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>215</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>225</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>230</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>236</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>246</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>256</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>262</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2</v>
       </c>
@@ -9396,7 +9397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>268</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>278</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>291</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>297</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9709,7 +9710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>303</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>309</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>315</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>329</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>334</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
@@ -10045,7 +10046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>344</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>350</v>
       </c>
@@ -10158,7 +10159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>364</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>370</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>377</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>383</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>388</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>394</v>
       </c>
@@ -10549,7 +10550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>400</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>406</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -10720,7 +10721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>416</v>
       </c>
@@ -10746,7 +10747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>430</v>
       </c>
@@ -10865,7 +10866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>436</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>441</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>448</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>454</v>
       </c>
@@ -11082,7 +11083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>460</v>
       </c>
@@ -11137,7 +11138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>466</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>472</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -11340,7 +11341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>486</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>492</v>
       </c>
@@ -11418,7 +11419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>497</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>503</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>509</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>515</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>525</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>531</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>537</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -11864,7 +11865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>547</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>552</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -12003,7 +12004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>558</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>564</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>574</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>584</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>590</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -12342,7 +12343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>600</v>
       </c>
@@ -12397,7 +12398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>605</v>
       </c>
@@ -12452,7 +12453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>611</v>
       </c>
@@ -12507,7 +12508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -12536,7 +12537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>617</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>623</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -12678,7 +12679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>633</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>639</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>645</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>651</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>657</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>662</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -13005,7 +13006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>668</v>
       </c>
@@ -13031,7 +13032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>674</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>680</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -13170,7 +13171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>690</v>
       </c>
@@ -13228,7 +13229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>696</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>710</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -13428,7 +13429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -13460,7 +13461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>719</v>
       </c>
@@ -13486,7 +13487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>725</v>
       </c>
@@ -13541,7 +13542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -13570,7 +13571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
@@ -13634,7 +13635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>739</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>745</v>
       </c>
@@ -13715,7 +13716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>751</v>
       </c>
@@ -13770,7 +13771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>760</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>765</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2</v>
       </c>
@@ -13938,7 +13939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>771</v>
       </c>
@@ -13964,7 +13965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -13993,7 +13994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>777</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>787</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2</v>
       </c>
@@ -14167,7 +14168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>797</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2</v>
       </c>
@@ -14286,7 +14287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>811</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>816</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>826</v>
       </c>
@@ -14451,7 +14452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>832</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2</v>
       </c>
@@ -14567,7 +14568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>846</v>
       </c>
@@ -14625,7 +14626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>852</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>862</v>
       </c>
@@ -14764,7 +14765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -14793,7 +14794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>871</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>877</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1</v>
       </c>
@@ -14967,7 +14968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>891</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>895</v>
       </c>
@@ -15048,7 +15049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
@@ -15080,7 +15081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
         <v>901</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2</v>
       </c>
@@ -15135,7 +15136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>911</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -15219,7 +15220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>920</v>
       </c>
@@ -15277,7 +15278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4</v>
       </c>
@@ -15306,7 +15307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>926</v>
       </c>
@@ -15332,7 +15333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3</v>
       </c>
@@ -15361,7 +15362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>932</v>
       </c>
@@ -15387,7 +15388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -15416,7 +15417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>942</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>3</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>952</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3</v>
       </c>
@@ -15590,7 +15591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>962</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -15674,7 +15675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>967</v>
       </c>
@@ -15700,7 +15701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2</v>
       </c>
@@ -15729,7 +15730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>973</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>979</v>
       </c>
@@ -15810,7 +15811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -15839,7 +15840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>370</v>
       </c>
@@ -15862,7 +15863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>991</v>
       </c>
@@ -15920,7 +15921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>997</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2</v>
       </c>
@@ -16004,7 +16005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>1003</v>
       </c>
@@ -16030,7 +16031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>1009</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>1015</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2</v>
       </c>
@@ -16169,7 +16170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>1021</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>1026</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -16276,7 +16277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>1032</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4</v>
       </c>
@@ -16331,7 +16332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>1038</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2</v>
       </c>
@@ -16386,7 +16387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>1044</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>1050</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4</v>
       </c>
@@ -16528,7 +16529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>1060</v>
       </c>
@@ -16554,7 +16555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>1</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2</v>
       </c>
@@ -16615,7 +16616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>1074</v>
       </c>
@@ -16670,7 +16671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>14</v>
       </c>
@@ -16699,7 +16700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>1079</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2</v>
       </c>
@@ -16754,7 +16755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>1085</v>
       </c>
@@ -16780,7 +16781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2</v>
       </c>
@@ -16809,7 +16810,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>1091</v>
       </c>
@@ -16835,7 +16836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>1097</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -16919,7 +16920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>1103</v>
       </c>
@@ -16945,7 +16946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>1113</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -17061,7 +17062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2</v>
       </c>
@@ -17125,7 +17126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>1127</v>
       </c>
@@ -17148,7 +17149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -17177,7 +17178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>1132</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -17232,7 +17233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>1138</v>
       </c>
@@ -17258,7 +17259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2</v>
       </c>
@@ -17287,7 +17288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>1144</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>1</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>1150</v>
       </c>
@@ -17368,7 +17369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>1156</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>1162</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3</v>
       </c>
@@ -17507,7 +17508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>1168</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>1</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>1174</v>
       </c>
@@ -17588,7 +17589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>1180</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>1186</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -17724,7 +17725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>1191</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
         <v>1197</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4</v>
       </c>
@@ -17834,7 +17835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>1203</v>
       </c>
@@ -17860,7 +17861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3</v>
       </c>
@@ -17889,7 +17890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>1209</v>
       </c>
@@ -17915,7 +17916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -17944,7 +17945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>1219</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>1225</v>
       </c>
@@ -18057,7 +18058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1</v>
       </c>
@@ -18086,7 +18087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2</v>
       </c>
@@ -18118,7 +18119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>1235</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1</v>
       </c>
@@ -18173,7 +18174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>1241</v>
       </c>
@@ -18196,7 +18197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -18225,7 +18226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>1246</v>
       </c>
@@ -18251,7 +18252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>1252</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2</v>
       </c>
@@ -18335,7 +18336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
         <v>1258</v>
       </c>
@@ -18361,7 +18362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2</v>
       </c>
@@ -18390,7 +18391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>1264</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2</v>
       </c>
@@ -18445,7 +18446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2</v>
       </c>
@@ -18477,7 +18478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>1274</v>
       </c>
@@ -18503,7 +18504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2</v>
       </c>
@@ -18532,7 +18533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>1280</v>
       </c>
@@ -18558,7 +18559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>1286</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>1292</v>
       </c>
@@ -18668,7 +18669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -18697,7 +18698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>1298</v>
       </c>
@@ -18720,7 +18721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>14</v>
       </c>
@@ -18749,7 +18750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>1303</v>
       </c>
@@ -18775,7 +18776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2</v>
       </c>
@@ -18804,7 +18805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>1309</v>
       </c>
@@ -18830,7 +18831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2</v>
       </c>
@@ -18859,7 +18860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>1315</v>
       </c>
@@ -18885,7 +18886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>1321</v>
       </c>
@@ -18940,7 +18941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2</v>
       </c>
@@ -18969,7 +18970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>1327</v>
       </c>
@@ -18995,7 +18996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
         <v>1333</v>
       </c>
@@ -19050,7 +19051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>1</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>1339</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>1345</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2</v>
       </c>
@@ -19221,7 +19222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>1355</v>
       </c>
@@ -19244,7 +19245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -19273,7 +19274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>1360</v>
       </c>
@@ -19299,7 +19300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4</v>
       </c>
@@ -19360,7 +19361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>1370</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>1</v>
       </c>
@@ -19415,7 +19416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
         <v>1376</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2</v>
       </c>
@@ -19470,7 +19471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2</v>
       </c>
@@ -19534,7 +19535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>1390</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -19589,7 +19590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2</v>
       </c>
@@ -19621,7 +19622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4</v>
       </c>
@@ -19653,7 +19654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>1404</v>
       </c>
@@ -19676,7 +19677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -19705,7 +19706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>1409</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -19760,7 +19761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1</v>
       </c>
@@ -19792,7 +19793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4</v>
       </c>
@@ -19824,7 +19825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
         <v>1423</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>1429</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2</v>
       </c>
@@ -19966,7 +19967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>1439</v>
       </c>
@@ -19992,7 +19993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2</v>
       </c>
@@ -20021,7 +20022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>1449</v>
       </c>
@@ -20079,7 +20080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>1455</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -20160,7 +20161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>1460</v>
       </c>
@@ -20186,7 +20187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
         <v>1466</v>
       </c>
@@ -20241,7 +20242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4</v>
       </c>
@@ -20270,7 +20271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>1449</v>
       </c>
@@ -20296,7 +20297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>1477</v>
       </c>
@@ -20351,7 +20352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2</v>
       </c>
@@ -20380,7 +20381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>1487</v>
       </c>
@@ -20438,7 +20439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2</v>
       </c>
@@ -20467,7 +20468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>1497</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2</v>
       </c>
@@ -20586,7 +20587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>1507</v>
       </c>
@@ -20609,7 +20610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>14</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>1512</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2</v>
       </c>
@@ -20693,7 +20694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>1518</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2</v>
       </c>
@@ -20748,7 +20749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B484" t="s">
         <v>1524</v>
       </c>
@@ -20774,7 +20775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -20803,7 +20804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>1530</v>
       </c>
@@ -20829,7 +20830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2</v>
       </c>
@@ -20858,7 +20859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>1536</v>
       </c>
@@ -20884,7 +20885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2</v>
       </c>
@@ -20913,7 +20914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>4</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>1546</v>
       </c>
@@ -20971,7 +20972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>1</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2</v>
       </c>
@@ -21032,7 +21033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>1556</v>
       </c>
@@ -21058,7 +21059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2</v>
       </c>
@@ -21087,7 +21088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>1562</v>
       </c>
@@ -21110,7 +21111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>14</v>
       </c>
@@ -21139,7 +21140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>1575</v>
       </c>
@@ -21229,7 +21230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1</v>
       </c>
@@ -21258,7 +21259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2</v>
       </c>
@@ -21290,7 +21291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>1585</v>
       </c>
@@ -21316,7 +21317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -21345,7 +21346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>1591</v>
       </c>
@@ -21371,7 +21372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1</v>
       </c>
@@ -21400,7 +21401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>1597</v>
       </c>
@@ -21426,7 +21427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3</v>
       </c>
@@ -21455,7 +21456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>1603</v>
       </c>
@@ -21481,7 +21482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>4</v>
       </c>
@@ -21510,7 +21511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B511" t="s">
         <v>1609</v>
       </c>
@@ -21536,7 +21537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>4</v>
       </c>
@@ -21566,10 +21567,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I512" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="H1:I512" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="no"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
